--- a/Ch07Ex05/Ch07Ex05.xlsx
+++ b/Ch07Ex05/Ch07Ex05.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Chairs</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Maximal Income</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>Total Profit</t>
   </si>
   <si>
@@ -70,6 +67,24 @@
   </si>
   <si>
     <t>Lunch</t>
+  </si>
+  <si>
+    <t>Postcards Printing</t>
+  </si>
+  <si>
+    <t>Selling Price</t>
+  </si>
+  <si>
+    <t>Handouts</t>
+  </si>
+  <si>
+    <t>Registration Costs</t>
+  </si>
+  <si>
+    <t>Seminar Duration</t>
+  </si>
+  <si>
+    <t>Seminal Worth Per Hour</t>
   </si>
 </sst>
 </file>
@@ -141,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +175,8 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,18 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -482,10 +500,10 @@
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -496,7 +514,7 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="2">
@@ -511,7 +529,7 @@
       <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>45</v>
       </c>
       <c r="D3" s="2">
@@ -526,7 +544,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>500</v>
       </c>
       <c r="D4" s="2">
@@ -536,32 +554,32 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <f>165</f>
-        <v>165</v>
+        <f>B5*C5+(B5*C5*4/100)</f>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
       </c>
       <c r="D6" s="2">
-        <f>370</f>
-        <v>370</v>
+        <f t="shared" ref="D6:D7" si="0">B6*C6</f>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,20 +587,89 @@
         <v>16</v>
       </c>
       <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>5000</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="2">
         <v>0.35</v>
       </c>
-      <c r="D7" s="2">
-        <f>B7*C7</f>
+      <c r="D8" s="2">
+        <f>B8*C8</f>
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="9">
-        <f>SUM(D2:D7)</f>
-        <v>9585</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>5000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B9*C9</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <f>Income!B3</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <f>B10*C10</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="9">
+        <f>SUM(D2:D10)</f>
+        <v>13856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f>D11/D13</f>
+        <v>288.66666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -593,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,12 +695,12 @@
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -624,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -636,52 +723,64 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Expenditure!A5</f>
+        <f>Expenditure!A6</f>
         <v>Beverages</v>
       </c>
       <c r="B7">
-        <v>312.3</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <f>B7-Expenditure!D5</f>
-        <v>147.30000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <f>B7*B3</f>
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <f>C7-Expenditure!D6</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Expenditure!A6</f>
+        <f>Expenditure!A7</f>
         <v>Lunch</v>
       </c>
       <c r="B8">
-        <v>525.5</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <f>B8-Expenditure!D6</f>
-        <v>155.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="8">
-        <f>SUM(C7:C8)+C3</f>
-        <v>18302.8</v>
+        <f>B8*B3</f>
+        <v>900</v>
+      </c>
+      <c r="D8">
+        <f>C8-Expenditure!D7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+      <c r="D9" s="8">
+        <f>SUM(D7:D8)+C3-Expenditure!D11</f>
+        <v>4194</v>
       </c>
     </row>
   </sheetData>
